--- a/9-groupby-function/groupby-start.xlsx
+++ b/9-groupby-function/groupby-start.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/dynamic-array-functions/9-groupby-function/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-dynamic-array-functions\9-groupby-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{52DE6D08-B262-4037-82FD-B1981629C079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1CD960-D504-4951-B295-82491B18BB34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0466F87-EB5C-435C-A20F-D6EECCBE8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="example-1" sheetId="6" r:id="rId2"/>
-    <sheet name="example-2" sheetId="9" r:id="rId3"/>
-    <sheet name="example-3" sheetId="11" r:id="rId4"/>
-    <sheet name="example-4" sheetId="7" r:id="rId5"/>
-    <sheet name="example-5" sheetId="8" r:id="rId6"/>
+    <sheet name="examples" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -7790,9 +7786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -26956,90 +26950,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA8D9AA-6A83-414B-8C20-09FF7463E502}">
-  <dimension ref="B2:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:C5">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM)</f>
-        <v>Accessories</v>
-      </c>
-      <c r="C2">
-        <v>280575</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="C3">
-        <v>209136</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="C4">
-        <v>242079</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="str">
-        <v>Total</v>
-      </c>
-      <c r="C5">
-        <v>731790</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE988-B521-40AA-9750-3DBE830DC2FA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A43CDF-18E9-4F72-8E10-6AD7D64CDA23}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1981D1F-6EA1-4707-9924-DFD2369DFF2E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/9-groupby-function/groupby-start.xlsx
+++ b/9-groupby-function/groupby-start.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-dynamic-array-functions\9-groupby-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0466F87-EB5C-435C-A20F-D6EECCBE8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7A5FB-033A-4DAE-8CB9-A348DD0A50CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="examples" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="33">
   <si>
     <t>Electronics</t>
   </si>
@@ -159,108 +133,12 @@
   <si>
     <t>sales</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">values </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= Summarize by a value/measure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = How to summarize (Sum, avg, min, max, etc)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>row_fields</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Group by a category/dimension</t>
-    </r>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of sales</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="3"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,25 +164,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -325,7125 +192,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="George Mount" refreshedDate="45442.444679282409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{B777DAA5-5E53-44C1-AB92-A956CE49E9E2}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="sales"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="order_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="500"/>
-    </cacheField>
-    <cacheField name="customer_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="200"/>
-    </cacheField>
-    <cacheField name="product_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
-    </cacheField>
-    <cacheField name="category" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Electronics"/>
-        <s v="Accessories"/>
-        <s v="Clothing"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="product_name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="unit_price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="992"/>
-    </cacheField>
-    <cacheField name="quantity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
-    </cacheField>
-    <cacheField name="sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="3968"/>
-    </cacheField>
-    <cacheField name="order_date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-01T00:00:00" maxDate="2023-01-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="customer_age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="64"/>
-    </cacheField>
-    <cacheField name="customer_gender" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="country" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="500">
-  <r>
-    <n v="1"/>
-    <n v="150"/>
-    <n v="9"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-11-14T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <n v="176"/>
-    <n v="36"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-10-06T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="37"/>
-    <n v="22"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="821"/>
-    <n v="4"/>
-    <n v="3284"/>
-    <d v="2022-05-07T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="143"/>
-    <n v="42"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-05-09T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="163"/>
-    <n v="26"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="301"/>
-    <n v="1"/>
-    <n v="301"/>
-    <d v="2022-02-27T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="199"/>
-    <n v="12"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <n v="160"/>
-    <n v="17"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="11"/>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="776"/>
-    <n v="3"/>
-    <n v="2328"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <n v="138"/>
-    <n v="14"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="141"/>
-    <n v="1"/>
-    <n v="141"/>
-    <d v="2022-10-17T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="78"/>
-    <n v="34"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-04-06T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <n v="77"/>
-    <n v="20"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <n v="185"/>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-04-28T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <n v="153"/>
-    <n v="16"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-02-17T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <n v="2"/>
-    <n v="31"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="611"/>
-    <n v="4"/>
-    <n v="2444"/>
-    <d v="2022-03-30T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <n v="64"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-08-25T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <n v="35"/>
-    <n v="19"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-09-29T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <n v="7"/>
-    <n v="37"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-07-08T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <n v="85"/>
-    <n v="4"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <n v="146"/>
-    <n v="47"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <n v="67"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-10-05T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <n v="42"/>
-    <n v="20"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-12-15T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <n v="118"/>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="51"/>
-    <n v="1"/>
-    <n v="51"/>
-    <d v="2022-09-04T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <n v="125"/>
-    <n v="24"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-03-17T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <n v="167"/>
-    <n v="35"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <n v="169"/>
-    <n v="26"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <n v="24"/>
-    <n v="37"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="992"/>
-    <n v="1"/>
-    <n v="992"/>
-    <d v="2022-03-27T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <n v="188"/>
-    <n v="38"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-07-04T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <n v="46"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-10-12T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <n v="19"/>
-    <n v="40"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="32"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <n v="68"/>
-    <n v="39"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="826"/>
-    <n v="3"/>
-    <n v="2478"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <n v="102"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="611"/>
-    <n v="2"/>
-    <n v="1222"/>
-    <d v="2022-02-16T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <n v="42"/>
-    <n v="10"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-04-04T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <n v="32"/>
-    <n v="38"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-08-26T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <n v="167"/>
-    <n v="46"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="130"/>
-    <n v="3"/>
-    <n v="390"/>
-    <d v="2022-07-23T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <n v="109"/>
-    <n v="4"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="320"/>
-    <n v="1"/>
-    <n v="320"/>
-    <d v="2022-08-06T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <n v="36"/>
-    <n v="45"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-12-07T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <n v="97"/>
-    <n v="20"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <n v="164"/>
-    <n v="17"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="947"/>
-    <n v="2"/>
-    <n v="1894"/>
-    <d v="2022-04-10T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <n v="131"/>
-    <n v="7"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="921"/>
-    <n v="1"/>
-    <n v="921"/>
-    <d v="2022-10-16T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <n v="73"/>
-    <n v="4"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-09-11T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <n v="136"/>
-    <n v="29"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-08-10T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <n v="97"/>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="774"/>
-    <n v="3"/>
-    <n v="2322"/>
-    <d v="2022-12-23T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <n v="123"/>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-01-23T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <n v="70"/>
-    <n v="24"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="301"/>
-    <n v="4"/>
-    <n v="1204"/>
-    <d v="2022-09-07T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <n v="169"/>
-    <n v="37"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="255"/>
-    <n v="1"/>
-    <n v="255"/>
-    <d v="2022-01-10T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <n v="196"/>
-    <n v="16"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="319"/>
-    <n v="3"/>
-    <n v="957"/>
-    <d v="2022-09-03T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <n v="13"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-11-21T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <n v="49"/>
-    <n v="24"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="912"/>
-    <n v="4"/>
-    <n v="3648"/>
-    <d v="2022-04-10T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <n v="60"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="947"/>
-    <n v="2"/>
-    <n v="1894"/>
-    <d v="2022-10-17T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <n v="130"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <n v="188"/>
-    <n v="18"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="779"/>
-    <n v="3"/>
-    <n v="2337"/>
-    <d v="2022-08-11T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <n v="5"/>
-    <n v="19"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-09-07T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="53"/>
-    <n v="172"/>
-    <n v="31"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-05-27T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="54"/>
-    <n v="27"/>
-    <n v="19"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-04-06T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="55"/>
-    <n v="160"/>
-    <n v="49"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-09-14T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <n v="149"/>
-    <n v="46"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-11-21T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <n v="8"/>
-    <n v="19"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-01-04T00:00:00"/>
-    <n v="30"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="58"/>
-    <n v="200"/>
-    <n v="22"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-01-16T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <n v="50"/>
-    <n v="24"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="389"/>
-    <n v="1"/>
-    <n v="389"/>
-    <d v="2022-10-07T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <n v="67"/>
-    <n v="45"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-12-02T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <n v="44"/>
-    <n v="12"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="981"/>
-    <n v="3"/>
-    <n v="2943"/>
-    <d v="2022-09-04T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <n v="125"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-09-15T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="63"/>
-    <n v="58"/>
-    <n v="38"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-06-09T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <n v="3"/>
-    <n v="31"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-12-06T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="65"/>
-    <n v="86"/>
-    <n v="36"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-06-01T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="66"/>
-    <n v="70"/>
-    <n v="19"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="865"/>
-    <n v="1"/>
-    <n v="865"/>
-    <d v="2022-06-27T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <n v="130"/>
-    <n v="48"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-06-12T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="68"/>
-    <n v="172"/>
-    <n v="45"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="992"/>
-    <n v="3"/>
-    <n v="2976"/>
-    <d v="2022-02-02T00:00:00"/>
-    <n v="30"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <n v="2"/>
-    <n v="36"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-06-28T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <n v="102"/>
-    <n v="30"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-04-11T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <n v="35"/>
-    <n v="49"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-09-25T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <n v="98"/>
-    <n v="33"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="871"/>
-    <n v="1"/>
-    <n v="871"/>
-    <d v="2022-11-19T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <n v="30"/>
-    <n v="18"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="51"/>
-    <n v="3"/>
-    <n v="153"/>
-    <d v="2022-03-06T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <n v="116"/>
-    <n v="49"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="211"/>
-    <n v="3"/>
-    <n v="633"/>
-    <d v="2022-06-17T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <n v="8"/>
-    <n v="28"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="947"/>
-    <n v="4"/>
-    <n v="3788"/>
-    <d v="2022-11-26T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <n v="150"/>
-    <n v="47"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="769"/>
-    <n v="3"/>
-    <n v="2307"/>
-    <d v="2022-02-12T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <n v="44"/>
-    <n v="11"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="155"/>
-    <n v="1"/>
-    <n v="155"/>
-    <d v="2022-02-13T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="78"/>
-    <n v="186"/>
-    <n v="45"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-10-12T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <n v="36"/>
-    <n v="33"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="615"/>
-    <n v="1"/>
-    <n v="615"/>
-    <d v="2022-01-12T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <n v="197"/>
-    <n v="17"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="505"/>
-    <n v="4"/>
-    <n v="2020"/>
-    <d v="2022-04-05T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <n v="77"/>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="504"/>
-    <n v="4"/>
-    <n v="2016"/>
-    <d v="2022-10-29T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="31"/>
-    <n v="4"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="416"/>
-    <n v="2"/>
-    <n v="832"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="47"/>
-    <n v="20"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="255"/>
-    <n v="1"/>
-    <n v="255"/>
-    <d v="2022-08-30T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="55"/>
-    <n v="48"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="614"/>
-    <n v="3"/>
-    <n v="1842"/>
-    <d v="2022-02-04T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="106"/>
-    <n v="47"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="971"/>
-    <n v="3"/>
-    <n v="2913"/>
-    <d v="2022-08-03T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="190"/>
-    <n v="27"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="981"/>
-    <n v="1"/>
-    <n v="981"/>
-    <d v="2022-12-03T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="158"/>
-    <n v="15"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-03-31T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="121"/>
-    <n v="6"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="921"/>
-    <n v="3"/>
-    <n v="2763"/>
-    <d v="2022-09-21T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="55"/>
-    <n v="47"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="981"/>
-    <n v="1"/>
-    <n v="981"/>
-    <d v="2022-04-03T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="144"/>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="504"/>
-    <n v="4"/>
-    <n v="2016"/>
-    <d v="2022-03-31T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="12"/>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-04-25T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="145"/>
-    <n v="39"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-04-15T00:00:00"/>
-    <n v="52"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="144"/>
-    <n v="9"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="992"/>
-    <n v="3"/>
-    <n v="2976"/>
-    <d v="2022-07-15T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="140"/>
-    <n v="26"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="825"/>
-    <n v="3"/>
-    <n v="2475"/>
-    <d v="2022-11-10T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="136"/>
-    <n v="16"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="389"/>
-    <n v="3"/>
-    <n v="1167"/>
-    <d v="2022-04-24T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <n v="3"/>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-03-16T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <n v="144"/>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="992"/>
-    <n v="4"/>
-    <n v="3968"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <n v="30"/>
-    <n v="50"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="611"/>
-    <n v="2"/>
-    <n v="1222"/>
-    <d v="2022-10-04T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <n v="23"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <n v="92"/>
-    <n v="13"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-06-13T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <n v="115"/>
-    <n v="43"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="389"/>
-    <n v="2"/>
-    <n v="778"/>
-    <d v="2022-12-23T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <n v="104"/>
-    <n v="49"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <n v="118"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="255"/>
-    <n v="1"/>
-    <n v="255"/>
-    <d v="2022-08-15T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <n v="5"/>
-    <n v="45"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="389"/>
-    <n v="2"/>
-    <n v="778"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <n v="104"/>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="319"/>
-    <n v="4"/>
-    <n v="1276"/>
-    <d v="2022-04-09T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <n v="108"/>
-    <n v="17"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-02-05T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <n v="65"/>
-    <n v="45"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-04-06T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <n v="121"/>
-    <n v="19"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-06-01T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <n v="30"/>
-    <n v="42"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="437"/>
-    <n v="4"/>
-    <n v="1748"/>
-    <d v="2022-05-31T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <n v="149"/>
-    <n v="35"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-07-09T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <n v="84"/>
-    <n v="46"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="389"/>
-    <n v="2"/>
-    <n v="778"/>
-    <d v="2022-08-12T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <n v="198"/>
-    <n v="26"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-02-06T00:00:00"/>
-    <n v="62"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <n v="150"/>
-    <n v="5"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="605"/>
-    <n v="4"/>
-    <n v="2420"/>
-    <d v="2022-09-25T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <n v="200"/>
-    <n v="29"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="928"/>
-    <n v="2"/>
-    <n v="1856"/>
-    <d v="2022-07-02T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <n v="32"/>
-    <n v="37"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="776"/>
-    <n v="3"/>
-    <n v="2328"/>
-    <d v="2022-01-13T00:00:00"/>
-    <n v="35"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <n v="161"/>
-    <n v="20"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="947"/>
-    <n v="4"/>
-    <n v="3788"/>
-    <d v="2022-10-06T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <n v="16"/>
-    <n v="49"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <n v="38"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-12-21T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <n v="142"/>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="51"/>
-    <n v="2"/>
-    <n v="102"/>
-    <d v="2022-12-27T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <n v="36"/>
-    <n v="5"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="416"/>
-    <n v="1"/>
-    <n v="416"/>
-    <d v="2022-10-13T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <n v="151"/>
-    <n v="36"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-09-30T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <n v="114"/>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="155"/>
-    <n v="1"/>
-    <n v="155"/>
-    <d v="2022-03-03T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <n v="66"/>
-    <n v="26"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="255"/>
-    <n v="3"/>
-    <n v="765"/>
-    <d v="2022-03-25T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <n v="105"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="155"/>
-    <n v="2"/>
-    <n v="310"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <n v="85"/>
-    <n v="39"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-12-08T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <n v="2"/>
-    <n v="39"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-07-06T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <n v="193"/>
-    <n v="50"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="51"/>
-    <n v="1"/>
-    <n v="51"/>
-    <d v="2022-01-19T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <n v="75"/>
-    <n v="35"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="779"/>
-    <n v="1"/>
-    <n v="779"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <n v="67"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-04-10T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <n v="180"/>
-    <n v="24"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="921"/>
-    <n v="3"/>
-    <n v="2763"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <n v="190"/>
-    <n v="36"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="558"/>
-    <n v="2"/>
-    <n v="1116"/>
-    <d v="2022-03-17T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <n v="151"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-09-22T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <n v="154"/>
-    <n v="41"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="504"/>
-    <n v="3"/>
-    <n v="1512"/>
-    <d v="2022-10-11T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <n v="196"/>
-    <n v="46"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="526"/>
-    <n v="1"/>
-    <n v="526"/>
-    <d v="2022-07-25T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <n v="55"/>
-    <n v="44"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-08-11T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <n v="6"/>
-    <n v="31"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="558"/>
-    <n v="1"/>
-    <n v="558"/>
-    <d v="2022-02-21T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <n v="163"/>
-    <n v="20"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-12-05T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="138"/>
-    <n v="150"/>
-    <n v="24"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="139"/>
-    <n v="171"/>
-    <n v="25"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="140"/>
-    <n v="143"/>
-    <n v="36"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-04-09T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <n v="86"/>
-    <n v="21"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="451"/>
-    <n v="4"/>
-    <n v="1804"/>
-    <d v="2022-01-25T00:00:00"/>
-    <n v="59"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <n v="60"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="751"/>
-    <n v="3"/>
-    <n v="2253"/>
-    <d v="2022-02-22T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <n v="101"/>
-    <n v="24"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="389"/>
-    <n v="3"/>
-    <n v="1167"/>
-    <d v="2022-05-31T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <n v="12"/>
-    <n v="44"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="921"/>
-    <n v="2"/>
-    <n v="1842"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <n v="49"/>
-    <n v="42"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-02-26T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <n v="42"/>
-    <n v="30"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="51"/>
-    <n v="4"/>
-    <n v="204"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <n v="166"/>
-    <n v="22"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-04-19T00:00:00"/>
-    <n v="56"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <n v="82"/>
-    <n v="28"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-06-30T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <n v="173"/>
-    <n v="7"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="752"/>
-    <n v="4"/>
-    <n v="3008"/>
-    <d v="2022-02-11T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <n v="35"/>
-    <n v="35"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-07-05T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <n v="158"/>
-    <n v="28"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="992"/>
-    <n v="2"/>
-    <n v="1984"/>
-    <d v="2022-08-11T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <n v="158"/>
-    <n v="14"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="416"/>
-    <n v="1"/>
-    <n v="416"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <n v="134"/>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="614"/>
-    <n v="2"/>
-    <n v="1228"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <n v="67"/>
-    <n v="16"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-06-12T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <n v="80"/>
-    <n v="16"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="912"/>
-    <n v="4"/>
-    <n v="3648"/>
-    <d v="2022-08-03T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <n v="7"/>
-    <n v="31"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="871"/>
-    <n v="2"/>
-    <n v="1742"/>
-    <d v="2022-08-09T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <n v="180"/>
-    <n v="42"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="865"/>
-    <n v="3"/>
-    <n v="2595"/>
-    <d v="2022-08-23T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <n v="14"/>
-    <n v="25"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-11-27T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <n v="73"/>
-    <n v="13"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-05-26T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <n v="143"/>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="821"/>
-    <n v="1"/>
-    <n v="821"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <n v="149"/>
-    <n v="44"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="558"/>
-    <n v="1"/>
-    <n v="558"/>
-    <d v="2022-03-17T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="162"/>
-    <n v="163"/>
-    <n v="9"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="511"/>
-    <n v="1"/>
-    <n v="511"/>
-    <d v="2022-01-09T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <n v="66"/>
-    <n v="45"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="615"/>
-    <n v="4"/>
-    <n v="2460"/>
-    <d v="2022-03-15T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="164"/>
-    <n v="91"/>
-    <n v="36"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="526"/>
-    <n v="1"/>
-    <n v="526"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="30"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <n v="130"/>
-    <n v="43"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="774"/>
-    <n v="3"/>
-    <n v="2322"/>
-    <d v="2022-08-18T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <n v="163"/>
-    <n v="20"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-01-07T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <n v="20"/>
-    <n v="18"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-06-23T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <n v="10"/>
-    <n v="43"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-05-21T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="169"/>
-    <n v="25"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-06-17T00:00:00"/>
-    <n v="41"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="170"/>
-    <n v="194"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="511"/>
-    <n v="2"/>
-    <n v="1022"/>
-    <d v="2022-06-19T00:00:00"/>
-    <n v="32"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <n v="25"/>
-    <n v="50"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="51"/>
-    <n v="3"/>
-    <n v="153"/>
-    <d v="2022-10-10T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <n v="54"/>
-    <n v="33"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="752"/>
-    <n v="1"/>
-    <n v="752"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <n v="33"/>
-    <n v="27"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-07-13T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <n v="164"/>
-    <n v="7"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="51"/>
-    <n v="1"/>
-    <n v="51"/>
-    <d v="2022-01-05T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <n v="95"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="769"/>
-    <n v="1"/>
-    <n v="769"/>
-    <d v="2022-01-29T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <n v="14"/>
-    <n v="15"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-06-14T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <n v="65"/>
-    <n v="18"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="51"/>
-    <n v="2"/>
-    <n v="102"/>
-    <d v="2022-12-05T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <n v="110"/>
-    <n v="32"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-05-16T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="179"/>
-    <n v="80"/>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-12-31T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <n v="54"/>
-    <n v="20"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-11-17T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <n v="125"/>
-    <n v="24"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="605"/>
-    <n v="2"/>
-    <n v="1210"/>
-    <d v="2022-12-08T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <n v="180"/>
-    <n v="15"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="912"/>
-    <n v="4"/>
-    <n v="3648"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <n v="131"/>
-    <n v="48"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-11-23T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <n v="169"/>
-    <n v="7"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <n v="134"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-10-28T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <n v="25"/>
-    <n v="42"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="130"/>
-    <n v="4"/>
-    <n v="520"/>
-    <d v="2022-05-12T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="187"/>
-    <n v="141"/>
-    <n v="26"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="752"/>
-    <n v="3"/>
-    <n v="2256"/>
-    <d v="2022-10-19T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="188"/>
-    <n v="117"/>
-    <n v="44"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="558"/>
-    <n v="3"/>
-    <n v="1674"/>
-    <d v="2022-03-11T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="189"/>
-    <n v="136"/>
-    <n v="14"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-09-09T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="190"/>
-    <n v="149"/>
-    <n v="37"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="319"/>
-    <n v="3"/>
-    <n v="957"/>
-    <d v="2022-10-02T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <n v="196"/>
-    <n v="21"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-12-30T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="192"/>
-    <n v="25"/>
-    <n v="18"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-07-01T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <n v="79"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-06-16T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="194"/>
-    <n v="68"/>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-04-01T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="195"/>
-    <n v="173"/>
-    <n v="23"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="320"/>
-    <n v="1"/>
-    <n v="320"/>
-    <d v="2022-07-21T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <n v="188"/>
-    <n v="26"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-12-12T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <n v="12"/>
-    <n v="37"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-01-19T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="198"/>
-    <n v="32"/>
-    <n v="24"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="947"/>
-    <n v="2"/>
-    <n v="1894"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="199"/>
-    <n v="128"/>
-    <n v="49"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="200"/>
-    <n v="96"/>
-    <n v="19"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="29"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <n v="92"/>
-    <n v="25"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="526"/>
-    <n v="3"/>
-    <n v="1578"/>
-    <d v="2022-05-21T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="202"/>
-    <n v="141"/>
-    <n v="21"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-08-30T00:00:00"/>
-    <n v="30"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="203"/>
-    <n v="31"/>
-    <n v="12"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="204"/>
-    <n v="78"/>
-    <n v="41"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="205"/>
-    <n v="20"/>
-    <n v="33"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="615"/>
-    <n v="1"/>
-    <n v="615"/>
-    <d v="2022-02-27T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="206"/>
-    <n v="146"/>
-    <n v="50"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-05-28T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="207"/>
-    <n v="60"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-11-13T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="208"/>
-    <n v="191"/>
-    <n v="42"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-12-27T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="209"/>
-    <n v="134"/>
-    <n v="7"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="210"/>
-    <n v="160"/>
-    <n v="22"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-12-14T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="211"/>
-    <n v="93"/>
-    <n v="33"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="605"/>
-    <n v="3"/>
-    <n v="1815"/>
-    <d v="2022-07-09T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="212"/>
-    <n v="43"/>
-    <n v="17"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-07-10T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="213"/>
-    <n v="130"/>
-    <n v="24"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="798"/>
-    <n v="4"/>
-    <n v="3192"/>
-    <d v="2022-11-08T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="214"/>
-    <n v="60"/>
-    <n v="34"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="451"/>
-    <n v="3"/>
-    <n v="1353"/>
-    <d v="2022-04-27T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="215"/>
-    <n v="151"/>
-    <n v="28"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="826"/>
-    <n v="4"/>
-    <n v="3304"/>
-    <d v="2022-05-14T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="216"/>
-    <n v="31"/>
-    <n v="43"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-02-27T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="217"/>
-    <n v="5"/>
-    <n v="41"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-02-13T00:00:00"/>
-    <n v="59"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="218"/>
-    <n v="162"/>
-    <n v="39"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="947"/>
-    <n v="3"/>
-    <n v="2841"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="219"/>
-    <n v="10"/>
-    <n v="22"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="416"/>
-    <n v="3"/>
-    <n v="1248"/>
-    <d v="2022-06-09T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="220"/>
-    <n v="89"/>
-    <n v="49"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="221"/>
-    <n v="130"/>
-    <n v="17"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-11-13T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="222"/>
-    <n v="126"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="223"/>
-    <n v="11"/>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-05-29T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="224"/>
-    <n v="178"/>
-    <n v="46"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="826"/>
-    <n v="4"/>
-    <n v="3304"/>
-    <d v="2022-03-21T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="225"/>
-    <n v="159"/>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="558"/>
-    <n v="1"/>
-    <n v="558"/>
-    <d v="2022-08-01T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="226"/>
-    <n v="56"/>
-    <n v="34"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="320"/>
-    <n v="1"/>
-    <n v="320"/>
-    <d v="2022-07-22T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="227"/>
-    <n v="83"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-09-09T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="228"/>
-    <n v="137"/>
-    <n v="10"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="798"/>
-    <n v="4"/>
-    <n v="3192"/>
-    <d v="2022-08-17T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="229"/>
-    <n v="99"/>
-    <n v="21"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="387"/>
-    <n v="3"/>
-    <n v="1161"/>
-    <d v="2022-06-13T00:00:00"/>
-    <n v="63"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="230"/>
-    <n v="149"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="345"/>
-    <n v="2"/>
-    <n v="690"/>
-    <d v="2022-08-15T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="231"/>
-    <n v="73"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-05-27T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="232"/>
-    <n v="156"/>
-    <n v="22"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-01-20T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="233"/>
-    <n v="190"/>
-    <n v="48"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-02-16T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="234"/>
-    <n v="115"/>
-    <n v="2"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="235"/>
-    <n v="7"/>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="511"/>
-    <n v="1"/>
-    <n v="511"/>
-    <d v="2022-11-01T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="236"/>
-    <n v="80"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-01-14T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="237"/>
-    <n v="144"/>
-    <n v="16"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="558"/>
-    <n v="2"/>
-    <n v="1116"/>
-    <d v="2022-05-23T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="238"/>
-    <n v="97"/>
-    <n v="48"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="971"/>
-    <n v="3"/>
-    <n v="2913"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="32"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="239"/>
-    <n v="4"/>
-    <n v="39"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="752"/>
-    <n v="3"/>
-    <n v="2256"/>
-    <d v="2022-02-23T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="240"/>
-    <n v="4"/>
-    <n v="22"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="971"/>
-    <n v="2"/>
-    <n v="1942"/>
-    <d v="2022-09-16T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="241"/>
-    <n v="103"/>
-    <n v="12"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="242"/>
-    <n v="40"/>
-    <n v="24"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-01-12T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="243"/>
-    <n v="17"/>
-    <n v="47"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="871"/>
-    <n v="3"/>
-    <n v="2613"/>
-    <d v="2022-11-26T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="244"/>
-    <n v="101"/>
-    <n v="40"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="451"/>
-    <n v="4"/>
-    <n v="1804"/>
-    <d v="2022-08-12T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="245"/>
-    <n v="103"/>
-    <n v="38"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-09-29T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="246"/>
-    <n v="124"/>
-    <n v="10"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="130"/>
-    <n v="2"/>
-    <n v="260"/>
-    <d v="2022-12-24T00:00:00"/>
-    <n v="52"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="247"/>
-    <n v="52"/>
-    <n v="35"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="947"/>
-    <n v="4"/>
-    <n v="3788"/>
-    <d v="2022-06-05T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="248"/>
-    <n v="52"/>
-    <n v="49"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="779"/>
-    <n v="1"/>
-    <n v="779"/>
-    <d v="2022-01-08T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="249"/>
-    <n v="164"/>
-    <n v="32"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="250"/>
-    <n v="124"/>
-    <n v="7"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="752"/>
-    <n v="4"/>
-    <n v="3008"/>
-    <d v="2022-12-14T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="251"/>
-    <n v="166"/>
-    <n v="21"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="526"/>
-    <n v="1"/>
-    <n v="526"/>
-    <d v="2022-06-13T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="252"/>
-    <n v="178"/>
-    <n v="20"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="437"/>
-    <n v="2"/>
-    <n v="874"/>
-    <d v="2022-03-31T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="253"/>
-    <n v="63"/>
-    <n v="26"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-05-16T00:00:00"/>
-    <n v="35"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="254"/>
-    <n v="116"/>
-    <n v="4"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="611"/>
-    <n v="4"/>
-    <n v="2444"/>
-    <d v="2022-07-05T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="255"/>
-    <n v="191"/>
-    <n v="46"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-11-12T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="256"/>
-    <n v="62"/>
-    <n v="22"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-06-27T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="257"/>
-    <n v="7"/>
-    <n v="15"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-01-28T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="258"/>
-    <n v="155"/>
-    <n v="40"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="971"/>
-    <n v="1"/>
-    <n v="971"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="259"/>
-    <n v="92"/>
-    <n v="21"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="51"/>
-    <n v="4"/>
-    <n v="204"/>
-    <d v="2022-12-23T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="260"/>
-    <n v="14"/>
-    <n v="15"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="798"/>
-    <n v="3"/>
-    <n v="2394"/>
-    <d v="2022-02-10T00:00:00"/>
-    <n v="41"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="261"/>
-    <n v="199"/>
-    <n v="22"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="301"/>
-    <n v="3"/>
-    <n v="903"/>
-    <d v="2022-08-16T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="262"/>
-    <n v="86"/>
-    <n v="28"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="263"/>
-    <n v="133"/>
-    <n v="14"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="264"/>
-    <n v="183"/>
-    <n v="27"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-07-20T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="265"/>
-    <n v="130"/>
-    <n v="41"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="928"/>
-    <n v="3"/>
-    <n v="2784"/>
-    <d v="2022-07-31T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="266"/>
-    <n v="62"/>
-    <n v="40"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="267"/>
-    <n v="149"/>
-    <n v="28"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-08-28T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="268"/>
-    <n v="79"/>
-    <n v="26"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="319"/>
-    <n v="3"/>
-    <n v="957"/>
-    <d v="2022-02-15T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="269"/>
-    <n v="149"/>
-    <n v="49"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="387"/>
-    <n v="4"/>
-    <n v="1548"/>
-    <d v="2022-02-04T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="270"/>
-    <n v="138"/>
-    <n v="2"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="271"/>
-    <n v="58"/>
-    <n v="25"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-03-23T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="272"/>
-    <n v="120"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-09-13T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="273"/>
-    <n v="167"/>
-    <n v="8"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-07-16T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="274"/>
-    <n v="133"/>
-    <n v="44"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="301"/>
-    <n v="4"/>
-    <n v="1204"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="275"/>
-    <n v="65"/>
-    <n v="33"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="825"/>
-    <n v="4"/>
-    <n v="3300"/>
-    <d v="2022-01-10T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="276"/>
-    <n v="13"/>
-    <n v="42"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="971"/>
-    <n v="3"/>
-    <n v="2913"/>
-    <d v="2022-11-08T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="277"/>
-    <n v="181"/>
-    <n v="35"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-10-13T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="278"/>
-    <n v="82"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="319"/>
-    <n v="4"/>
-    <n v="1276"/>
-    <d v="2022-08-30T00:00:00"/>
-    <n v="45"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="279"/>
-    <n v="173"/>
-    <n v="39"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="825"/>
-    <n v="4"/>
-    <n v="3300"/>
-    <d v="2022-09-08T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="280"/>
-    <n v="160"/>
-    <n v="23"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-12-31T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="281"/>
-    <n v="164"/>
-    <n v="25"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="921"/>
-    <n v="4"/>
-    <n v="3684"/>
-    <d v="2022-01-05T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="282"/>
-    <n v="188"/>
-    <n v="50"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="605"/>
-    <n v="4"/>
-    <n v="2420"/>
-    <d v="2022-04-29T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="283"/>
-    <n v="139"/>
-    <n v="43"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="102"/>
-    <n v="2"/>
-    <n v="204"/>
-    <d v="2022-10-16T00:00:00"/>
-    <n v="30"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="284"/>
-    <n v="191"/>
-    <n v="19"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="558"/>
-    <n v="3"/>
-    <n v="1674"/>
-    <d v="2022-03-06T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="285"/>
-    <n v="149"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="921"/>
-    <n v="4"/>
-    <n v="3684"/>
-    <d v="2022-05-26T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="286"/>
-    <n v="52"/>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="511"/>
-    <n v="2"/>
-    <n v="1022"/>
-    <d v="2022-08-12T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <n v="183"/>
-    <n v="12"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="288"/>
-    <n v="117"/>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="320"/>
-    <n v="3"/>
-    <n v="960"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="289"/>
-    <n v="26"/>
-    <n v="8"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="84"/>
-    <n v="1"/>
-    <n v="84"/>
-    <d v="2022-09-24T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="290"/>
-    <n v="196"/>
-    <n v="24"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="387"/>
-    <n v="1"/>
-    <n v="387"/>
-    <d v="2022-12-07T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="291"/>
-    <n v="34"/>
-    <n v="28"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="614"/>
-    <n v="2"/>
-    <n v="1228"/>
-    <d v="2022-10-09T00:00:00"/>
-    <n v="46"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="292"/>
-    <n v="52"/>
-    <n v="41"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-03-04T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="293"/>
-    <n v="112"/>
-    <n v="36"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="511"/>
-    <n v="2"/>
-    <n v="1022"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="33"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="294"/>
-    <n v="82"/>
-    <n v="37"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-12-08T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="295"/>
-    <n v="180"/>
-    <n v="21"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-11-11T00:00:00"/>
-    <n v="36"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="296"/>
-    <n v="157"/>
-    <n v="8"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="387"/>
-    <n v="2"/>
-    <n v="774"/>
-    <d v="2022-10-10T00:00:00"/>
-    <n v="35"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="297"/>
-    <n v="166"/>
-    <n v="9"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="504"/>
-    <n v="3"/>
-    <n v="1512"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="298"/>
-    <n v="42"/>
-    <n v="47"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="387"/>
-    <n v="4"/>
-    <n v="1548"/>
-    <d v="2022-04-08T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="299"/>
-    <n v="21"/>
-    <n v="15"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-04-15T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="300"/>
-    <n v="42"/>
-    <n v="48"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-04-09T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="301"/>
-    <n v="141"/>
-    <n v="46"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-11-07T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="302"/>
-    <n v="113"/>
-    <n v="40"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="141"/>
-    <n v="1"/>
-    <n v="141"/>
-    <d v="2022-01-06T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="303"/>
-    <n v="105"/>
-    <n v="18"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="774"/>
-    <n v="4"/>
-    <n v="3096"/>
-    <d v="2022-07-16T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="304"/>
-    <n v="192"/>
-    <n v="42"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="871"/>
-    <n v="1"/>
-    <n v="871"/>
-    <d v="2022-12-17T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="305"/>
-    <n v="17"/>
-    <n v="20"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="776"/>
-    <n v="2"/>
-    <n v="1552"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="306"/>
-    <n v="120"/>
-    <n v="6"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-12-24T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="307"/>
-    <n v="137"/>
-    <n v="12"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="451"/>
-    <n v="4"/>
-    <n v="1804"/>
-    <d v="2022-09-16T00:00:00"/>
-    <n v="46"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="308"/>
-    <n v="169"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="319"/>
-    <n v="4"/>
-    <n v="1276"/>
-    <d v="2022-01-23T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <n v="129"/>
-    <n v="7"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="505"/>
-    <n v="4"/>
-    <n v="2020"/>
-    <d v="2022-02-22T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="310"/>
-    <n v="130"/>
-    <n v="16"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-06-14T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="311"/>
-    <n v="60"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="921"/>
-    <n v="4"/>
-    <n v="3684"/>
-    <d v="2022-07-21T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="312"/>
-    <n v="48"/>
-    <n v="45"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-03-24T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="313"/>
-    <n v="29"/>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="314"/>
-    <n v="97"/>
-    <n v="27"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="774"/>
-    <n v="1"/>
-    <n v="774"/>
-    <d v="2022-03-26T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="315"/>
-    <n v="10"/>
-    <n v="50"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="511"/>
-    <n v="4"/>
-    <n v="2044"/>
-    <d v="2022-03-19T00:00:00"/>
-    <n v="51"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="316"/>
-    <n v="58"/>
-    <n v="43"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="301"/>
-    <n v="1"/>
-    <n v="301"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="317"/>
-    <n v="188"/>
-    <n v="40"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-02-20T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="318"/>
-    <n v="21"/>
-    <n v="38"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="319"/>
-    <n v="28"/>
-    <n v="33"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="774"/>
-    <n v="3"/>
-    <n v="2322"/>
-    <d v="2022-07-24T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="320"/>
-    <n v="34"/>
-    <n v="28"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="505"/>
-    <n v="3"/>
-    <n v="1515"/>
-    <d v="2022-09-17T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="321"/>
-    <n v="8"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="130"/>
-    <n v="2"/>
-    <n v="260"/>
-    <d v="2022-10-15T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="322"/>
-    <n v="187"/>
-    <n v="8"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="451"/>
-    <n v="3"/>
-    <n v="1353"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="323"/>
-    <n v="200"/>
-    <n v="37"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="921"/>
-    <n v="2"/>
-    <n v="1842"/>
-    <d v="2022-12-14T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="324"/>
-    <n v="177"/>
-    <n v="32"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="912"/>
-    <n v="2"/>
-    <n v="1824"/>
-    <d v="2022-04-05T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="325"/>
-    <n v="79"/>
-    <n v="48"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-03-13T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="326"/>
-    <n v="145"/>
-    <n v="43"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="825"/>
-    <n v="2"/>
-    <n v="1650"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="327"/>
-    <n v="188"/>
-    <n v="37"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="84"/>
-    <n v="2"/>
-    <n v="168"/>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="328"/>
-    <n v="87"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="947"/>
-    <n v="1"/>
-    <n v="947"/>
-    <d v="2022-09-07T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="329"/>
-    <n v="88"/>
-    <n v="30"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="615"/>
-    <n v="3"/>
-    <n v="1845"/>
-    <d v="2022-06-11T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="330"/>
-    <n v="173"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="416"/>
-    <n v="2"/>
-    <n v="832"/>
-    <d v="2022-04-28T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="331"/>
-    <n v="69"/>
-    <n v="46"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="774"/>
-    <n v="4"/>
-    <n v="3096"/>
-    <d v="2022-09-16T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="332"/>
-    <n v="160"/>
-    <n v="19"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-11-02T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="333"/>
-    <n v="172"/>
-    <n v="32"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="947"/>
-    <n v="3"/>
-    <n v="2841"/>
-    <d v="2022-09-25T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="334"/>
-    <n v="193"/>
-    <n v="9"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="451"/>
-    <n v="2"/>
-    <n v="902"/>
-    <d v="2022-02-23T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="335"/>
-    <n v="87"/>
-    <n v="12"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-08-24T00:00:00"/>
-    <n v="51"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="336"/>
-    <n v="101"/>
-    <n v="11"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-08-10T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="337"/>
-    <n v="8"/>
-    <n v="46"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-09-08T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="338"/>
-    <n v="77"/>
-    <n v="16"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-11-09T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="339"/>
-    <n v="200"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="511"/>
-    <n v="3"/>
-    <n v="1533"/>
-    <d v="2022-04-22T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="340"/>
-    <n v="87"/>
-    <n v="45"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-09-12T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="341"/>
-    <n v="43"/>
-    <n v="21"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="342"/>
-    <n v="129"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="511"/>
-    <n v="1"/>
-    <n v="511"/>
-    <d v="2022-07-26T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="343"/>
-    <n v="109"/>
-    <n v="13"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="511"/>
-    <n v="4"/>
-    <n v="2044"/>
-    <d v="2022-08-17T00:00:00"/>
-    <n v="33"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="344"/>
-    <n v="179"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="439"/>
-    <n v="1"/>
-    <n v="439"/>
-    <d v="2022-12-07T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="345"/>
-    <n v="152"/>
-    <n v="4"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-03-07T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="346"/>
-    <n v="152"/>
-    <n v="28"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="779"/>
-    <n v="3"/>
-    <n v="2337"/>
-    <d v="2022-03-16T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="347"/>
-    <n v="17"/>
-    <n v="38"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-04-13T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="348"/>
-    <n v="133"/>
-    <n v="31"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="349"/>
-    <n v="148"/>
-    <n v="27"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-09-09T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="350"/>
-    <n v="21"/>
-    <n v="5"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-08-14T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="351"/>
-    <n v="58"/>
-    <n v="25"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="439"/>
-    <n v="4"/>
-    <n v="1756"/>
-    <d v="2022-10-21T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="352"/>
-    <n v="159"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="971"/>
-    <n v="1"/>
-    <n v="971"/>
-    <d v="2022-11-02T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="353"/>
-    <n v="110"/>
-    <n v="33"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="416"/>
-    <n v="4"/>
-    <n v="1664"/>
-    <d v="2022-04-08T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="354"/>
-    <n v="139"/>
-    <n v="4"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-12-04T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="355"/>
-    <n v="180"/>
-    <n v="25"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-10-13T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="356"/>
-    <n v="143"/>
-    <n v="20"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-12-01T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="357"/>
-    <n v="135"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="51"/>
-    <n v="2"/>
-    <n v="102"/>
-    <d v="2022-12-13T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="358"/>
-    <n v="28"/>
-    <n v="26"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-11-04T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="359"/>
-    <n v="51"/>
-    <n v="5"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="360"/>
-    <n v="186"/>
-    <n v="35"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="947"/>
-    <n v="3"/>
-    <n v="2841"/>
-    <d v="2022-06-15T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="361"/>
-    <n v="5"/>
-    <n v="28"/>
-    <x v="0"/>
-    <s v="T-shirt"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-12-01T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="362"/>
-    <n v="5"/>
-    <n v="29"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-01-30T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="363"/>
-    <n v="94"/>
-    <n v="9"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="947"/>
-    <n v="1"/>
-    <n v="947"/>
-    <d v="2022-09-04T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="364"/>
-    <n v="96"/>
-    <n v="38"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="992"/>
-    <n v="4"/>
-    <n v="3968"/>
-    <d v="2022-04-16T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="365"/>
-    <n v="8"/>
-    <n v="50"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="752"/>
-    <n v="1"/>
-    <n v="752"/>
-    <d v="2022-02-20T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <n v="64"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-03-22T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="367"/>
-    <n v="138"/>
-    <n v="19"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="155"/>
-    <n v="2"/>
-    <n v="310"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="368"/>
-    <n v="38"/>
-    <n v="44"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="871"/>
-    <n v="1"/>
-    <n v="871"/>
-    <d v="2022-10-12T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="369"/>
-    <n v="111"/>
-    <n v="11"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-05-18T00:00:00"/>
-    <n v="20"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="370"/>
-    <n v="112"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-07-03T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="371"/>
-    <n v="81"/>
-    <n v="47"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-11-26T00:00:00"/>
-    <n v="29"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="372"/>
-    <n v="136"/>
-    <n v="44"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="798"/>
-    <n v="1"/>
-    <n v="798"/>
-    <d v="2022-09-30T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="373"/>
-    <n v="104"/>
-    <n v="44"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="387"/>
-    <n v="4"/>
-    <n v="1548"/>
-    <d v="2022-12-06T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="374"/>
-    <n v="153"/>
-    <n v="9"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="251"/>
-    <n v="3"/>
-    <n v="753"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="375"/>
-    <n v="73"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="376"/>
-    <n v="194"/>
-    <n v="24"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="389"/>
-    <n v="1"/>
-    <n v="389"/>
-    <d v="2022-09-19T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="377"/>
-    <n v="178"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-02-22T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="378"/>
-    <n v="195"/>
-    <n v="22"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="387"/>
-    <n v="3"/>
-    <n v="1161"/>
-    <d v="2022-07-24T00:00:00"/>
-    <n v="51"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="379"/>
-    <n v="49"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="380"/>
-    <n v="36"/>
-    <n v="12"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-08-23T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="381"/>
-    <n v="126"/>
-    <n v="28"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="345"/>
-    <n v="3"/>
-    <n v="1035"/>
-    <d v="2022-02-12T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <n v="68"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="776"/>
-    <n v="4"/>
-    <n v="3104"/>
-    <d v="2022-08-28T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="383"/>
-    <n v="78"/>
-    <n v="26"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="384"/>
-    <n v="105"/>
-    <n v="48"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="385"/>
-    <n v="169"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="841"/>
-    <n v="2"/>
-    <n v="1682"/>
-    <d v="2022-05-31T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="386"/>
-    <n v="122"/>
-    <n v="28"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-07-02T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="387"/>
-    <n v="119"/>
-    <n v="26"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="477"/>
-    <n v="2"/>
-    <n v="954"/>
-    <d v="2022-12-02T00:00:00"/>
-    <n v="63"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="388"/>
-    <n v="190"/>
-    <n v="33"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-04-05T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="389"/>
-    <n v="114"/>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="798"/>
-    <n v="3"/>
-    <n v="2394"/>
-    <d v="2022-01-08T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="390"/>
-    <n v="10"/>
-    <n v="35"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="865"/>
-    <n v="4"/>
-    <n v="3460"/>
-    <d v="2022-12-26T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="391"/>
-    <n v="149"/>
-    <n v="34"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="776"/>
-    <n v="2"/>
-    <n v="1552"/>
-    <d v="2022-07-03T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="392"/>
-    <n v="164"/>
-    <n v="41"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="615"/>
-    <n v="4"/>
-    <n v="2460"/>
-    <d v="2022-10-08T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="393"/>
-    <n v="140"/>
-    <n v="47"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="751"/>
-    <n v="2"/>
-    <n v="1502"/>
-    <d v="2022-07-14T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="394"/>
-    <n v="91"/>
-    <n v="18"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-12-18T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="395"/>
-    <n v="2"/>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="345"/>
-    <n v="3"/>
-    <n v="1035"/>
-    <d v="2022-07-14T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="396"/>
-    <n v="118"/>
-    <n v="23"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="155"/>
-    <n v="2"/>
-    <n v="310"/>
-    <d v="2022-06-04T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="397"/>
-    <n v="13"/>
-    <n v="48"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-04-03T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="398"/>
-    <n v="181"/>
-    <n v="22"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="992"/>
-    <n v="2"/>
-    <n v="1984"/>
-    <d v="2022-06-09T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="399"/>
-    <n v="160"/>
-    <n v="17"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-03-02T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="400"/>
-    <n v="95"/>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="981"/>
-    <n v="3"/>
-    <n v="2943"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="401"/>
-    <n v="144"/>
-    <n v="44"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="614"/>
-    <n v="2"/>
-    <n v="1228"/>
-    <d v="2022-02-20T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="402"/>
-    <n v="32"/>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="605"/>
-    <n v="2"/>
-    <n v="1210"/>
-    <d v="2022-10-04T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="403"/>
-    <n v="32"/>
-    <n v="30"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-01-05T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="404"/>
-    <n v="124"/>
-    <n v="15"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="477"/>
-    <n v="1"/>
-    <n v="477"/>
-    <d v="2022-04-02T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="405"/>
-    <n v="11"/>
-    <n v="27"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-06-19T00:00:00"/>
-    <n v="46"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="406"/>
-    <n v="10"/>
-    <n v="35"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-11-13T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="407"/>
-    <n v="15"/>
-    <n v="33"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="505"/>
-    <n v="1"/>
-    <n v="505"/>
-    <d v="2022-01-22T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="408"/>
-    <n v="17"/>
-    <n v="20"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-11-22T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="409"/>
-    <n v="168"/>
-    <n v="16"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="84"/>
-    <n v="2"/>
-    <n v="168"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="410"/>
-    <n v="146"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="411"/>
-    <n v="183"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="387"/>
-    <n v="3"/>
-    <n v="1161"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="412"/>
-    <n v="153"/>
-    <n v="35"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-01-12T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="413"/>
-    <n v="59"/>
-    <n v="40"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="102"/>
-    <n v="2"/>
-    <n v="204"/>
-    <d v="2022-12-12T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="414"/>
-    <n v="78"/>
-    <n v="28"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-02-15T00:00:00"/>
-    <n v="59"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="415"/>
-    <n v="124"/>
-    <n v="47"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="416"/>
-    <n v="114"/>
-    <n v="39"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-03-19T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="417"/>
-    <n v="22"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-08-06T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="418"/>
-    <n v="158"/>
-    <n v="9"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="439"/>
-    <n v="1"/>
-    <n v="439"/>
-    <d v="2022-10-28T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="419"/>
-    <n v="172"/>
-    <n v="20"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-03-14T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="420"/>
-    <n v="32"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="505"/>
-    <n v="1"/>
-    <n v="505"/>
-    <d v="2022-10-09T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="421"/>
-    <n v="179"/>
-    <n v="8"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="141"/>
-    <n v="4"/>
-    <n v="564"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="422"/>
-    <n v="174"/>
-    <n v="23"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="769"/>
-    <n v="2"/>
-    <n v="1538"/>
-    <d v="2022-02-16T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="423"/>
-    <n v="113"/>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="921"/>
-    <n v="3"/>
-    <n v="2763"/>
-    <d v="2022-05-01T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="424"/>
-    <n v="120"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="605"/>
-    <n v="1"/>
-    <n v="605"/>
-    <d v="2022-08-02T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="425"/>
-    <n v="149"/>
-    <n v="25"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="615"/>
-    <n v="4"/>
-    <n v="2460"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="426"/>
-    <n v="122"/>
-    <n v="47"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-02-25T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="427"/>
-    <n v="32"/>
-    <n v="38"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="605"/>
-    <n v="4"/>
-    <n v="2420"/>
-    <d v="2022-12-16T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="428"/>
-    <n v="119"/>
-    <n v="15"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-04-17T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="429"/>
-    <n v="39"/>
-    <n v="21"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="774"/>
-    <n v="4"/>
-    <n v="3096"/>
-    <d v="2022-11-15T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="430"/>
-    <n v="12"/>
-    <n v="35"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-02-17T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="431"/>
-    <n v="175"/>
-    <n v="46"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="345"/>
-    <n v="2"/>
-    <n v="690"/>
-    <d v="2022-03-02T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="432"/>
-    <n v="18"/>
-    <n v="14"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-12-03T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="433"/>
-    <n v="149"/>
-    <n v="36"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="558"/>
-    <n v="2"/>
-    <n v="1116"/>
-    <d v="2022-01-26T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="434"/>
-    <n v="141"/>
-    <n v="12"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-10-19T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="435"/>
-    <n v="149"/>
-    <n v="17"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="320"/>
-    <n v="3"/>
-    <n v="960"/>
-    <d v="2022-09-14T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="436"/>
-    <n v="126"/>
-    <n v="39"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="912"/>
-    <n v="3"/>
-    <n v="2736"/>
-    <d v="2022-01-08T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="437"/>
-    <n v="136"/>
-    <n v="9"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="477"/>
-    <n v="3"/>
-    <n v="1431"/>
-    <d v="2022-04-23T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="438"/>
-    <n v="46"/>
-    <n v="35"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="345"/>
-    <n v="4"/>
-    <n v="1380"/>
-    <d v="2022-12-21T00:00:00"/>
-    <n v="62"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="439"/>
-    <n v="104"/>
-    <n v="13"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="451"/>
-    <n v="2"/>
-    <n v="902"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="440"/>
-    <n v="135"/>
-    <n v="15"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="825"/>
-    <n v="2"/>
-    <n v="1650"/>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="441"/>
-    <n v="151"/>
-    <n v="18"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-07-26T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="442"/>
-    <n v="86"/>
-    <n v="33"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="776"/>
-    <n v="3"/>
-    <n v="2328"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="443"/>
-    <n v="150"/>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="928"/>
-    <n v="3"/>
-    <n v="2784"/>
-    <d v="2022-05-07T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="444"/>
-    <n v="89"/>
-    <n v="27"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="437"/>
-    <n v="2"/>
-    <n v="874"/>
-    <d v="2022-02-25T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="445"/>
-    <n v="22"/>
-    <n v="23"/>
-    <x v="0"/>
-    <s v="Headphones"/>
-    <n v="130"/>
-    <n v="3"/>
-    <n v="390"/>
-    <d v="2022-08-02T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="446"/>
-    <n v="92"/>
-    <n v="27"/>
-    <x v="2"/>
-    <s v="Watch"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-01-14T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="447"/>
-    <n v="29"/>
-    <n v="34"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="821"/>
-    <n v="2"/>
-    <n v="1642"/>
-    <d v="2022-01-28T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="448"/>
-    <n v="13"/>
-    <n v="46"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="504"/>
-    <n v="3"/>
-    <n v="1512"/>
-    <d v="2022-03-19T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="449"/>
-    <n v="2"/>
-    <n v="38"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-08-04T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="450"/>
-    <n v="29"/>
-    <n v="14"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="477"/>
-    <n v="1"/>
-    <n v="477"/>
-    <d v="2022-12-31T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="451"/>
-    <n v="180"/>
-    <n v="36"/>
-    <x v="1"/>
-    <s v="Tablet"/>
-    <n v="928"/>
-    <n v="2"/>
-    <n v="1856"/>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="452"/>
-    <n v="27"/>
-    <n v="8"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="319"/>
-    <n v="2"/>
-    <n v="638"/>
-    <d v="2022-01-14T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="453"/>
-    <n v="50"/>
-    <n v="35"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="319"/>
-    <n v="2"/>
-    <n v="638"/>
-    <d v="2022-07-06T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="454"/>
-    <n v="95"/>
-    <n v="19"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="437"/>
-    <n v="2"/>
-    <n v="874"/>
-    <d v="2022-11-08T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="455"/>
-    <n v="151"/>
-    <n v="30"/>
-    <x v="2"/>
-    <s v="Smartphone"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-01-07T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="456"/>
-    <n v="88"/>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-01-03T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="457"/>
-    <n v="44"/>
-    <n v="20"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="458"/>
-    <n v="22"/>
-    <n v="49"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="928"/>
-    <n v="2"/>
-    <n v="1856"/>
-    <d v="2022-08-26T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="459"/>
-    <n v="171"/>
-    <n v="25"/>
-    <x v="2"/>
-    <s v="Laptop"/>
-    <n v="345"/>
-    <n v="3"/>
-    <n v="1035"/>
-    <d v="2022-12-29T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="460"/>
-    <n v="165"/>
-    <n v="40"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="461"/>
-    <n v="189"/>
-    <n v="24"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="779"/>
-    <n v="3"/>
-    <n v="2337"/>
-    <d v="2022-10-01T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="462"/>
-    <n v="97"/>
-    <n v="14"/>
-    <x v="1"/>
-    <s v="Sunglasses"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-10-21T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="463"/>
-    <n v="184"/>
-    <n v="26"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-08-15T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="464"/>
-    <n v="3"/>
-    <n v="38"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="84"/>
-    <n v="1"/>
-    <n v="84"/>
-    <d v="2022-01-15T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="465"/>
-    <n v="191"/>
-    <n v="23"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="826"/>
-    <n v="4"/>
-    <n v="3304"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="466"/>
-    <n v="118"/>
-    <n v="22"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-04-29T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="467"/>
-    <n v="19"/>
-    <n v="48"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-01-28T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="468"/>
-    <n v="23"/>
-    <n v="19"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-07-21T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="469"/>
-    <n v="157"/>
-    <n v="46"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="470"/>
-    <n v="30"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="Smartphone"/>
-    <n v="84"/>
-    <n v="1"/>
-    <n v="84"/>
-    <d v="2022-09-30T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="471"/>
-    <n v="39"/>
-    <n v="42"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-08-19T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="472"/>
-    <n v="108"/>
-    <n v="19"/>
-    <x v="0"/>
-    <s v="Jacket"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-03-27T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="473"/>
-    <n v="111"/>
-    <n v="9"/>
-    <x v="0"/>
-    <s v="Shoes"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="474"/>
-    <n v="25"/>
-    <n v="28"/>
-    <x v="0"/>
-    <s v="Watch"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-10-27T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="475"/>
-    <n v="128"/>
-    <n v="20"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="821"/>
-    <n v="4"/>
-    <n v="3284"/>
-    <d v="2022-01-25T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="476"/>
-    <n v="111"/>
-    <n v="45"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="477"/>
-    <n v="136"/>
-    <n v="7"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="611"/>
-    <n v="2"/>
-    <n v="1222"/>
-    <d v="2022-01-13T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="478"/>
-    <n v="106"/>
-    <n v="14"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="416"/>
-    <n v="3"/>
-    <n v="1248"/>
-    <d v="2022-07-31T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="479"/>
-    <n v="186"/>
-    <n v="9"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-01-25T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="480"/>
-    <n v="144"/>
-    <n v="19"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="389"/>
-    <n v="3"/>
-    <n v="1167"/>
-    <d v="2022-03-09T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="481"/>
-    <n v="72"/>
-    <n v="47"/>
-    <x v="1"/>
-    <s v="Headphones"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-03-08T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="482"/>
-    <n v="129"/>
-    <n v="14"/>
-    <x v="2"/>
-    <s v="Headphones"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="483"/>
-    <n v="108"/>
-    <n v="38"/>
-    <x v="1"/>
-    <s v="Smartphone"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-04-19T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="484"/>
-    <n v="5"/>
-    <n v="36"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="416"/>
-    <n v="1"/>
-    <n v="416"/>
-    <d v="2022-05-26T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="485"/>
-    <n v="3"/>
-    <n v="40"/>
-    <x v="1"/>
-    <s v="T-shirt"/>
-    <n v="841"/>
-    <n v="2"/>
-    <n v="1682"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="486"/>
-    <n v="193"/>
-    <n v="17"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="776"/>
-    <n v="4"/>
-    <n v="3104"/>
-    <d v="2022-08-16T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="487"/>
-    <n v="132"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Shoes"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="488"/>
-    <n v="104"/>
-    <n v="9"/>
-    <x v="0"/>
-    <s v="Tablet"/>
-    <n v="841"/>
-    <n v="2"/>
-    <n v="1682"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="489"/>
-    <n v="64"/>
-    <n v="33"/>
-    <x v="2"/>
-    <s v="T-shirt"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="490"/>
-    <n v="106"/>
-    <n v="25"/>
-    <x v="1"/>
-    <s v="Watch"/>
-    <n v="774"/>
-    <n v="1"/>
-    <n v="774"/>
-    <d v="2022-09-21T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="491"/>
-    <n v="98"/>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-08-24T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="492"/>
-    <n v="10"/>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="Sunglasses"/>
-    <n v="614"/>
-    <n v="3"/>
-    <n v="1842"/>
-    <d v="2022-03-24T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="493"/>
-    <n v="149"/>
-    <n v="35"/>
-    <x v="0"/>
-    <s v="Camera"/>
-    <n v="130"/>
-    <n v="3"/>
-    <n v="390"/>
-    <d v="2022-02-11T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="494"/>
-    <n v="128"/>
-    <n v="41"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-04-11T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="495"/>
-    <n v="46"/>
-    <n v="14"/>
-    <x v="1"/>
-    <s v="Laptop"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-01-06T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="496"/>
-    <n v="155"/>
-    <n v="30"/>
-    <x v="1"/>
-    <s v="Jacket"/>
-    <n v="251"/>
-    <n v="3"/>
-    <n v="753"/>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="497"/>
-    <n v="66"/>
-    <n v="41"/>
-    <x v="2"/>
-    <s v="Tablet"/>
-    <n v="526"/>
-    <n v="2"/>
-    <n v="1052"/>
-    <d v="2022-10-09T00:00:00"/>
-    <n v="36"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="498"/>
-    <n v="169"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Camera"/>
-    <n v="981"/>
-    <n v="1"/>
-    <n v="981"/>
-    <d v="2022-11-16T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="499"/>
-    <n v="112"/>
-    <n v="4"/>
-    <x v="0"/>
-    <s v="Sunglasses"/>
-    <n v="871"/>
-    <n v="2"/>
-    <n v="1742"/>
-    <d v="2022-08-14T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="500"/>
-    <n v="13"/>
-    <n v="28"/>
-    <x v="2"/>
-    <s v="Camera"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-11-11T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB64D1E-F04A-402C-AE9D-F9529E802097}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C1:D5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of sales" fld="7" baseField="3" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7786,7 +534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -26848,106 +19598,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4673539-6FF9-4154-86F9-0E6DB3FFFE71}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="18.47265625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.89453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5">
-        <v>280575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5">
-        <v>209136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>242079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5">
-        <v>731790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7:D10">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM)</f>
-        <v>Accessories</v>
-      </c>
-      <c r="D7" s="6">
-        <v>280575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="D8" s="6">
-        <v>209136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="D9" s="6">
-        <v>242079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" t="str">
-        <v>Total</v>
-      </c>
-      <c r="D10" s="6">
-        <v>731790</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>